--- a/public/template/template-po-nonms-huawei.xlsx
+++ b/public/template/template-po-nonms-huawei.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Data/Projects/PT Putra Mulia Telecommunication/ERP/PO Nonms/Huawei/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D7A36-05FB-8741-8EBA-8CEE8960ADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE6FF3-2876-8D44-AB97-F31552D9AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{8B769B79-A352-0447-B4D1-6C85170523A0}"/>
+    <workbookView xWindow="7060" yWindow="3500" windowWidth="27240" windowHeight="16440" xr2:uid="{3FBDA565-004B-E34B-A0CD-639560B238B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,15 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>SL NO ( Free Text )</t>
   </si>
   <si>
-    <t>PO NO ( Free Text/Integer )</t>
-  </si>
-  <si>
-    <t>PO Details</t>
+    <t>PO No ( Free Text/Integer )</t>
+  </si>
+  <si>
+    <t>PO Line Shipment</t>
   </si>
   <si>
     <t>PO Aging (day)</t>
@@ -53,13 +53,14 @@
     <t>PO Aging By Month</t>
   </si>
   <si>
-    <t>PO Month Creation</t>
+    <t xml:space="preserve">PO Month Creation
+( MM/YY ) </t>
   </si>
   <si>
     <t>PO Amount</t>
   </si>
   <si>
-    <t>PIC PROJECT ( Free Text )</t>
+    <t>PIC Project ( Free Text )</t>
   </si>
   <si>
     <t>Project Code ( Internal ) - Free Text</t>
@@ -77,6 +78,9 @@
     <t xml:space="preserve">Project Type ( Free Text </t>
   </si>
   <si>
+    <t>Supplier ( Free Text )</t>
+  </si>
+  <si>
     <t>Current PIC Handler (Free text )</t>
   </si>
   <si>
@@ -99,6 +103,9 @@
   </si>
   <si>
     <t>Sub Contract No ( Free Text )</t>
+  </si>
+  <si>
+    <t>PR No ( Free integer only )</t>
   </si>
   <si>
     <t>PO Line NO ( Free integer only )</t>
@@ -171,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,19 +186,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,7 +217,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,57 +531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D0926-4FE8-C043-A92B-8BD3B4C856D3}">
-  <dimension ref="A1:AU1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49353CC8-663E-5A48-BA90-398A33DFC34F}">
+  <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="45.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,9 +673,12 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
